--- a/Mifos Automation Excels/Client/2690-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-RunPERON1stFEB-DELETEAccCL-REPAYon2ndFEB-RunPERON2ndFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2690-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-RunPERON1stFEB-DELETEAccCL-REPAYon2ndFEB-RunPERON2ndFEB-Newcreateloan1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Head Office</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Accounting has been closed for this branch as of `2014-02-01`.</t>
-  </si>
-  <si>
-    <t>validation.msg.periodicaccrual.execution.failed</t>
   </si>
   <si>
     <t>Navigate</t>
@@ -837,10 +834,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,14 +860,6 @@
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -918,10 +907,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
